--- a/ProP/Prediction.xlsx
+++ b/ProP/Prediction.xlsx
@@ -1,29 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beard\Desktop\Python Programs\Class Project\Projectile_Prediction\ProP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49711753-A551-448D-9E8D-60C707CCD3C4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="790" yWindow="690" windowWidth="16200" windowHeight="10160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>Data</t>
+    <t>Powder load</t>
+  </si>
+  <si>
+    <t>Velocity Needed</t>
+  </si>
+  <si>
+    <t>Weight of Threat</t>
+  </si>
+  <si>
+    <t>Humidity</t>
+  </si>
+  <si>
+    <t>Sabot Orientation</t>
+  </si>
+  <si>
+    <t>Distance to Target</t>
+  </si>
+  <si>
+    <t>Temperature</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +110,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -132,7 +164,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -164,9 +196,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -198,6 +248,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -373,256 +441,554 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4950.785009149266</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>3159.125950758973</v>
+      </c>
+      <c r="C2">
+        <v>5000</v>
+      </c>
+      <c r="D2">
+        <v>75</v>
+      </c>
+      <c r="E2">
+        <v>72</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6021.231164403798</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>3271.3101722454599</v>
+      </c>
+      <c r="C3">
+        <v>6000</v>
+      </c>
+      <c r="D3">
+        <v>75</v>
+      </c>
+      <c r="E3">
+        <v>61</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7033.27706570077</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>3341.3025437608349</v>
+      </c>
+      <c r="C4">
+        <v>7000</v>
+      </c>
+      <c r="D4">
+        <v>75</v>
+      </c>
+      <c r="E4">
+        <v>79</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="H4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5016.755362583093</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>3155.5421941784589</v>
+      </c>
+      <c r="C5">
+        <v>5000</v>
+      </c>
+      <c r="D5">
+        <v>75</v>
+      </c>
+      <c r="E5">
+        <v>75</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5948.553836733742</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>3333.0472631092312</v>
+      </c>
+      <c r="C6">
+        <v>6000</v>
+      </c>
+      <c r="D6">
+        <v>75</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>15</v>
+      </c>
+      <c r="H6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6973.188542573575</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>3991.0987397804279</v>
+      </c>
+      <c r="C7">
+        <v>7000</v>
+      </c>
+      <c r="D7">
+        <v>75</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>23</v>
+      </c>
+      <c r="H7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4993.545385586489</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>3728.071687485392</v>
+      </c>
+      <c r="C8">
+        <v>5000</v>
+      </c>
+      <c r="D8">
+        <v>75</v>
+      </c>
+      <c r="E8">
+        <v>69</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>23</v>
+      </c>
+      <c r="H8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5925.829284439734</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>3827.1154681766639</v>
+      </c>
+      <c r="C9">
+        <v>6000</v>
+      </c>
+      <c r="D9">
+        <v>75</v>
+      </c>
+      <c r="E9">
+        <v>69</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>23</v>
+      </c>
+      <c r="H9">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6960.886228932943</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>3980.3474700388888</v>
+      </c>
+      <c r="C10">
+        <v>7000</v>
+      </c>
+      <c r="D10">
+        <v>75</v>
+      </c>
+      <c r="E10">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>23</v>
+      </c>
+      <c r="H10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4994.542517439108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>3815.6577874763379</v>
+      </c>
+      <c r="C11">
+        <v>5000</v>
+      </c>
+      <c r="D11">
+        <v>75</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>23</v>
+      </c>
+      <c r="H11">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6025.949491628026</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>6870.5247521334504</v>
+      </c>
+      <c r="C12">
+        <v>6000</v>
+      </c>
+      <c r="D12">
+        <v>75</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>65</v>
+      </c>
+      <c r="H12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7060.629466233373</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>6951.2683933903654</v>
+      </c>
+      <c r="C13">
+        <v>7000</v>
+      </c>
+      <c r="D13">
+        <v>75</v>
+      </c>
+      <c r="E13">
+        <v>15</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>65</v>
+      </c>
+      <c r="H13">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4932.369271882619</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>6774.2514990276441</v>
+      </c>
+      <c r="C14">
+        <v>5000</v>
+      </c>
+      <c r="D14">
+        <v>75</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>65</v>
+      </c>
+      <c r="H14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5983.254058269544</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>6797.2736784645558</v>
+      </c>
+      <c r="C15">
+        <v>6000</v>
+      </c>
+      <c r="D15">
+        <v>75</v>
+      </c>
+      <c r="E15">
+        <v>61</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>65</v>
+      </c>
+      <c r="H15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6991.77226933141</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>6889.1499459948018</v>
+      </c>
+      <c r="C16">
+        <v>7000</v>
+      </c>
+      <c r="D16">
+        <v>75</v>
+      </c>
+      <c r="E16">
+        <v>67</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>65</v>
+      </c>
+      <c r="H16">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5025.566506966623</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>3171.5698455594002</v>
+      </c>
+      <c r="C17">
+        <v>5000</v>
+      </c>
+      <c r="D17">
+        <v>150</v>
+      </c>
+      <c r="E17">
+        <v>18</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>15</v>
+      </c>
+      <c r="H17">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6000.895318819952</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>3197.3625525817788</v>
+      </c>
+      <c r="C18">
+        <v>6000</v>
+      </c>
+      <c r="D18">
+        <v>150</v>
+      </c>
+      <c r="E18">
+        <v>73</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>15</v>
+      </c>
+      <c r="H18">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7063.025306808887</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>3370.4706359369911</v>
+      </c>
+      <c r="C19">
+        <v>7000</v>
+      </c>
+      <c r="D19">
+        <v>150</v>
+      </c>
+      <c r="E19">
+        <v>11</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>15</v>
+      </c>
+      <c r="H19">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5009.079913188205</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>3179.9319442472638</v>
+      </c>
+      <c r="C20">
+        <v>5000</v>
+      </c>
+      <c r="D20">
+        <v>150</v>
+      </c>
+      <c r="E20">
+        <v>11</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>15</v>
+      </c>
+      <c r="H20">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6005.818035673922</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>7021.58383122288</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>4882.645195638628</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>5918.819105547429</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>7017.339920383012</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>4913.336170375236</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>5989.946118445467</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>6964.682760917714</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>4966.178942909306</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>5984.929902493951</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>7009.14750369288</v>
+        <v>3198.557138108617</v>
+      </c>
+      <c r="C21">
+        <v>6000</v>
+      </c>
+      <c r="D21">
+        <v>150</v>
+      </c>
+      <c r="E21">
+        <v>72</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>15</v>
+      </c>
+      <c r="H21">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/ProP/Prediction.xlsx
+++ b/ProP/Prediction.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beard\Desktop\Python Programs\Class Project\Projectile_Prediction\ProP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49711753-A551-448D-9E8D-60C707CCD3C4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53ED950D-432D-46D2-B2BF-7473E858BDFD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="790" yWindow="690" windowWidth="16200" windowHeight="10160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2500" yWindow="1260" windowWidth="16200" windowHeight="10160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -444,7 +444,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13:G14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -476,7 +478,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3159.125950758973</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>5000</v>
@@ -502,7 +504,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3271.3101722454599</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>6000</v>
@@ -528,7 +530,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3341.3025437608349</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>7000</v>
@@ -554,7 +556,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3155.5421941784589</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>5000</v>
@@ -580,7 +582,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3333.0472631092312</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>6000</v>
@@ -606,7 +608,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3991.0987397804279</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>7000</v>
@@ -632,7 +634,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3728.071687485392</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>5000</v>
@@ -658,7 +660,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3827.1154681766639</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>6000</v>
@@ -684,7 +686,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3980.3474700388888</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>7000</v>
@@ -710,7 +712,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3815.6577874763379</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>5000</v>
@@ -736,7 +738,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6870.5247521334504</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>6000</v>
@@ -762,7 +764,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6951.2683933903654</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>7000</v>
@@ -788,7 +790,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6774.2514990276441</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>5000</v>
@@ -814,7 +816,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6797.2736784645558</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>6000</v>
@@ -840,7 +842,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6889.1499459948018</v>
+        <v>1</v>
       </c>
       <c r="C16">
         <v>7000</v>
@@ -866,7 +868,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3171.5698455594002</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>5000</v>
@@ -892,7 +894,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3197.3625525817788</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>6000</v>
@@ -918,7 +920,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3370.4706359369911</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>7000</v>
@@ -944,7 +946,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3179.9319442472638</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>5000</v>
@@ -970,7 +972,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3198.557138108617</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>6000</v>
